--- a/sequence_counts_v3.xlsx
+++ b/sequence_counts_v3.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alissawilliams/Desktop/pleiotropy_Dmelanogaster/revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alissawilliams/Desktop/GitHub/pleiotropy_Drosophila/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1837FF5-7DD6-E44C-B7F6-92380834DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE577CDC-29DE-1E44-A86F-5BEFB89DB1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="22980" windowHeight="16220" activeTab="1" xr2:uid="{EC186A79-7C18-9243-BDFF-AF4744541C3C}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="25380" windowHeight="16420" activeTab="2" xr2:uid="{EC186A79-7C18-9243-BDFF-AF4744541C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="paml" sheetId="1" r:id="rId1"/>
     <sheet name="mk" sheetId="2" r:id="rId2"/>
+    <sheet name="paml_melanogaster_group" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Number of sequences at beginning</t>
   </si>
@@ -73,7 +74,10 @@
     <t>Number of sequences in dsimDmelSites.tab for RAL</t>
   </si>
   <si>
-    <t>Number of sequences in dsimDmelSites.tab for ZI</t>
+    <t>Genes with at least 2 sequences for the 12 species dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genes with at least 2 sequences for the 6 species dataset </t>
   </si>
 </sst>
 </file>
@@ -534,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD422C-F6A0-4140-87F8-61234328AC70}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,9 +560,7 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -570,9 +572,6 @@
       <c r="C2">
         <v>317</v>
       </c>
-      <c r="D2">
-        <v>350</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -584,9 +583,6 @@
       <c r="C3">
         <v>207</v>
       </c>
-      <c r="D3">
-        <v>226</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -598,8 +594,95 @@
       <c r="C4">
         <v>1757</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AC1782-B632-514E-AED8-714B37274FDB}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>385</v>
+      </c>
+      <c r="D2">
+        <v>362</v>
+      </c>
+      <c r="E2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>294</v>
+      </c>
+      <c r="C3">
+        <v>291</v>
+      </c>
+      <c r="D3">
+        <v>257</v>
+      </c>
+      <c r="E3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2549</v>
+      </c>
+      <c r="C4">
+        <v>2520</v>
+      </c>
       <c r="D4">
-        <v>1959</v>
+        <v>2239</v>
+      </c>
+      <c r="E4">
+        <v>2236</v>
       </c>
     </row>
   </sheetData>
